--- a/va_facility_data_2025-02-20/Platte City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Platte%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Platte City VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Platte%20City%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4b08fd1b42e74d76a5a9404052bbb651"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6a8026a13c1f49eaae0a85842699ffbd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R049dc4acc59244b680aefb5ff172bb2c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R854c468211e0406a94081f57b78a5d8a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc1b3e4aa8bac41e2ac5d7251bb8922ab"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R67323b93aa69423e8fbd322970b26a89"/>
   </x:sheets>
 </x:workbook>
 </file>
